--- a/API_Cheat_Sheet/ApiCheatSheet.xlsx
+++ b/API_Cheat_Sheet/ApiCheatSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srand\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srand\OneDrive\Desktop\UniversityAddmission\collage_addmission_process_project_api\API_Cheat_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Sr. No</t>
   </si>
@@ -126,9 +126,6 @@
 }</t>
   </si>
   <si>
-    <t>New Student Table API's</t>
-  </si>
-  <si>
     <t>/studData</t>
   </si>
   <si>
@@ -314,6 +311,27 @@
   </si>
   <si>
     <t>Staff Table API's</t>
+  </si>
+  <si>
+    <t>STUDENT TABLE</t>
+  </si>
+  <si>
+    <t>GET AUTH TOKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ api/auth/getTokan </t>
+  </si>
+  <si>
+    <t>{ "key" : "key" }</t>
+  </si>
+  <si>
+    <t>Get access token</t>
+  </si>
+  <si>
+    <t>API FOR GET AUTH TOKEN</t>
+  </si>
+  <si>
+    <t>API FOR STUDENT TABLE</t>
   </si>
 </sst>
 </file>
@@ -497,7 +515,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -506,7 +524,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -531,8 +548,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -824,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,242 +858,274 @@
     <col min="7" max="7" width="63.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="26.4" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:19" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="234" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="408.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="342" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="234.6" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="408.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="342" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="17" spans="1:1" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="15" spans="1:19" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="18" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A15:XFD15"/>
+  <mergeCells count="3">
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A4:XFD4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
